--- a/data/gihun/dataset/제주도출산율모델.xlsx
+++ b/data/gihun/dataset/제주도출산율모델.xlsx
@@ -2717,14 +2717,18 @@
       <c r="C81" t="n">
         <v>0.4219269102990033</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>301</v>
       </c>
       <c r="F81" t="n">
         <v>75.727</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.004075452101116463</v>
+      </c>
       <c r="H81" t="n">
         <v>54</v>
       </c>
@@ -2753,14 +2757,18 @@
       <c r="C82" t="n">
         <v>0.4963503649635037</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>274</v>
       </c>
       <c r="F82" t="n">
         <v>75.652</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.004062252598286199</v>
+      </c>
       <c r="H82" t="n">
         <v>54</v>
       </c>
@@ -2789,14 +2797,18 @@
       <c r="C83" t="n">
         <v>0.4410876132930514</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>331</v>
       </c>
       <c r="F83" t="n">
         <v>76.252</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.004049053095455935</v>
+      </c>
       <c r="H83" t="n">
         <v>54</v>
       </c>
@@ -2825,14 +2837,18 @@
       <c r="C84" t="n">
         <v>0.430188679245283</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>265</v>
       </c>
       <c r="F84" t="n">
         <v>76.553</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.004035853592625671</v>
+      </c>
       <c r="H84" t="n">
         <v>54.2</v>
       </c>
@@ -2861,14 +2877,18 @@
       <c r="C85" t="n">
         <v>0.4507936507936508</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>315</v>
       </c>
       <c r="F85" t="n">
         <v>76.628</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.004022654089795408</v>
+      </c>
       <c r="H85" t="n">
         <v>54.6</v>
       </c>
@@ -2897,14 +2917,18 @@
       <c r="C86" t="n">
         <v>0.4906832298136646</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>322</v>
       </c>
       <c r="F86" t="n">
         <v>76.402</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.004009454586965144</v>
+      </c>
       <c r="H86" t="n">
         <v>54.8</v>
       </c>
@@ -2933,14 +2957,18 @@
       <c r="C87" t="n">
         <v>0.5478927203065134</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>261</v>
       </c>
       <c r="F87" t="n">
         <v>76.77800000000001</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.00399625508413488</v>
+      </c>
       <c r="H87" t="n">
         <v>54.5</v>
       </c>
@@ -2969,14 +2997,18 @@
       <c r="C88" t="n">
         <v>0.6796536796536796</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>231</v>
       </c>
       <c r="F88" t="n">
         <v>77.15300000000001</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.003983055581304617</v>
+      </c>
       <c r="H88" t="n">
         <v>54.5</v>
       </c>
@@ -3005,14 +3037,18 @@
       <c r="C89" t="n">
         <v>0.4545454545454545</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>220</v>
       </c>
       <c r="F89" t="n">
         <v>77.15300000000001</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.003969856078474354</v>
+      </c>
       <c r="H89" t="n">
         <v>54.5</v>
       </c>
@@ -3041,14 +3077,18 @@
       <c r="C90" t="n">
         <v>0.5058823529411764</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>255</v>
       </c>
       <c r="F90" t="n">
         <v>76.702</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.00395665657564409</v>
+      </c>
       <c r="H90" t="n">
         <v>54.5</v>
       </c>
@@ -3077,14 +3117,18 @@
       <c r="C91" t="n">
         <v>0.3708791208791209</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>364</v>
       </c>
       <c r="F91" t="n">
         <v>76.402</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.003943457072813826</v>
+      </c>
       <c r="H91" t="n">
         <v>54.6</v>
       </c>
@@ -3113,14 +3157,18 @@
       <c r="C92" t="n">
         <v>0.2883295194508009</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>437</v>
       </c>
       <c r="F92" t="n">
         <v>76.628</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.003930257569983562</v>
+      </c>
       <c r="H92" t="n">
         <v>54.9</v>
       </c>
@@ -3149,14 +3197,18 @@
       <c r="C93" t="n">
         <v>0.3842239185750636</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>393</v>
       </c>
       <c r="F93" t="n">
         <v>76.77800000000001</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.003917058067153299</v>
+      </c>
       <c r="H93" t="n">
         <v>55.2</v>
       </c>
@@ -3185,14 +3237,18 @@
       <c r="C94" t="n">
         <v>0.3468208092485549</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>9.725</v>
+      </c>
       <c r="E94" t="n">
         <v>346</v>
       </c>
       <c r="F94" t="n">
         <v>77.15300000000001</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.003904371568143892</v>
+      </c>
       <c r="H94" t="n">
         <v>55.4</v>
       </c>
@@ -3221,14 +3277,18 @@
       <c r="C95" t="n">
         <v>0.5151515151515151</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>9.85</v>
+      </c>
       <c r="E95" t="n">
         <v>297</v>
       </c>
       <c r="F95" t="n">
         <v>77.602</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.003891685069134486</v>
+      </c>
       <c r="H95" t="n">
         <v>55.3</v>
       </c>
@@ -3257,14 +3317,18 @@
       <c r="C96" t="n">
         <v>0.4789272030651341</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>9.975</v>
+      </c>
       <c r="E96" t="n">
         <v>261</v>
       </c>
       <c r="F96" t="n">
         <v>77.828</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.00387899857012508</v>
+      </c>
       <c r="H96" t="n">
         <v>55.3</v>
       </c>
@@ -3293,14 +3357,18 @@
       <c r="C97" t="n">
         <v>0.3970588235294117</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>10.1</v>
+      </c>
       <c r="E97" t="n">
         <v>340</v>
       </c>
       <c r="F97" t="n">
         <v>77.828</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.003866312071115673</v>
+      </c>
       <c r="H97" t="n">
         <v>55.3</v>
       </c>
@@ -3329,14 +3397,18 @@
       <c r="C98" t="n">
         <v>0.4850746268656717</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>10.225</v>
+      </c>
       <c r="E98" t="n">
         <v>268</v>
       </c>
       <c r="F98" t="n">
         <v>77.904</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.003853625572106267</v>
+      </c>
       <c r="H98" t="n">
         <v>55.5</v>
       </c>
@@ -3365,14 +3437,18 @@
       <c r="C99" t="n">
         <v>0.6044444444444445</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>10.35</v>
+      </c>
       <c r="E99" t="n">
         <v>225</v>
       </c>
       <c r="F99" t="n">
         <v>78.20399999999999</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.00384093907309686</v>
+      </c>
       <c r="H99" t="n">
         <v>55.4</v>
       </c>
@@ -3401,14 +3477,18 @@
       <c r="C100" t="n">
         <v>0.5645161290322581</v>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>10.475</v>
+      </c>
       <c r="E100" t="n">
         <v>248</v>
       </c>
       <c r="F100" t="n">
         <v>78.20399999999999</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.003828252574087454</v>
+      </c>
       <c r="H100" t="n">
         <v>55.5</v>
       </c>
@@ -3437,14 +3517,18 @@
       <c r="C101" t="n">
         <v>0.6711409395973155</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>10.6</v>
+      </c>
       <c r="E101" t="n">
         <v>149</v>
       </c>
       <c r="F101" t="n">
         <v>78.57899999999999</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.003815566075078048</v>
+      </c>
       <c r="H101" t="n">
         <v>55.8</v>
       </c>
@@ -3473,14 +3557,18 @@
       <c r="C102" t="n">
         <v>0.5551470588235294</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>10.725</v>
+      </c>
       <c r="E102" t="n">
         <v>272</v>
       </c>
       <c r="F102" t="n">
         <v>78.95399999999999</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.003802879576068641</v>
+      </c>
       <c r="H102" t="n">
         <v>55.8</v>
       </c>
@@ -3509,14 +3597,18 @@
       <c r="C103" t="n">
         <v>0.3104477611940298</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>10.85</v>
+      </c>
       <c r="E103" t="n">
         <v>335</v>
       </c>
       <c r="F103" t="n">
         <v>79.104</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.003790193077059235</v>
+      </c>
       <c r="H103" t="n">
         <v>56</v>
       </c>
@@ -3545,14 +3637,18 @@
       <c r="C104" t="n">
         <v>0.3213296398891967</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>10.975</v>
+      </c>
       <c r="E104" t="n">
         <v>361</v>
       </c>
       <c r="F104" t="n">
         <v>79.48</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.003777506578049828</v>
+      </c>
       <c r="H104" t="n">
         <v>56</v>
       </c>
@@ -10196,7 +10292,9 @@
       <c r="F273" t="n">
         <v>105.39</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.00144629211064471</v>
+      </c>
       <c r="H273" t="n">
         <v>107</v>
       </c>
@@ -10226,7 +10324,9 @@
       <c r="F274" t="n">
         <v>105.92</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.00144629211064471</v>
+      </c>
       <c r="H274" t="n">
         <v>107.2</v>
       </c>
@@ -10256,7 +10356,9 @@
       <c r="F275" t="n">
         <v>106.77</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.00144629211064471</v>
+      </c>
       <c r="H275" t="n">
         <v>107.3</v>
       </c>
@@ -10286,7 +10388,9 @@
       <c r="F276" t="n">
         <v>107.74</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.00144629211064471</v>
+      </c>
       <c r="H276" t="n">
         <v>107.4</v>
       </c>
@@ -10316,7 +10420,9 @@
       <c r="F277" t="n">
         <v>108.58</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.00144629211064471</v>
+      </c>
       <c r="H277" t="n">
         <v>107.4</v>
       </c>
@@ -10346,7 +10452,9 @@
       <c r="F278" t="n">
         <v>109.59</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.00144629211064471</v>
+      </c>
       <c r="H278" t="n">
         <v>107.6</v>
       </c>
@@ -10376,7 +10484,9 @@
       <c r="F279" t="n">
         <v>109.93</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.00144629211064471</v>
+      </c>
       <c r="H279" t="n">
         <v>107.6</v>
       </c>
@@ -10406,7 +10516,9 @@
       <c r="F280" t="n">
         <v>109.96</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.00144629211064471</v>
+      </c>
       <c r="H280" t="n">
         <v>107.6</v>
       </c>
@@ -10436,7 +10548,9 @@
       <c r="F281" t="n">
         <v>110.47</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.00144629211064471</v>
+      </c>
       <c r="H281" t="n">
         <v>107.5</v>
       </c>
@@ -10466,7 +10580,9 @@
       <c r="F282" t="n">
         <v>110.43</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.00144629211064471</v>
+      </c>
       <c r="H282" t="n">
         <v>107.4</v>
       </c>
@@ -10496,7 +10612,9 @@
       <c r="F283" t="n">
         <v>109.97</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.00144629211064471</v>
+      </c>
       <c r="H283" t="n">
         <v>107.1</v>
       </c>
@@ -10520,13 +10638,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>17.1</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>109.73</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.00144629211064471</v>
+      </c>
       <c r="H284" t="n">
         <v>106</v>
       </c>
@@ -10554,7 +10674,9 @@
       <c r="F285" t="n">
         <v>110.69</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.00144629211064471</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
